--- a/ExcelControl/RFID_data/Data/sampledata211102.xlsx
+++ b/ExcelControl/RFID_data/Data/sampledata211102.xlsx
@@ -739,7 +739,7 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
